--- a/SO/TRANSLATED 2024年电线部盘点计划.xlsx
+++ b/SO/TRANSLATED 2024年电线部盘点计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="10305" yWindow="-15" windowWidth="10200" windowHeight="8160" tabRatio="919" activeTab="4"/>
+    <workbookView xWindow="10305" yWindow="-15" windowWidth="10200" windowHeight="8160" tabRatio="919" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="计划表-plan" sheetId="1" r:id="rId1"/>
@@ -179,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="104">
   <si>
     <t>序号</t>
   </si>
@@ -631,6 +631,15 @@
   <si>
     <t>Jumlah / Jenis Palet</t>
   </si>
+  <si>
+    <t>Keterangan</t>
+  </si>
+  <si>
+    <t>di gudang</t>
+  </si>
+  <si>
+    <t>TANDA TANGAN</t>
+  </si>
 </sst>
 </file>
 
@@ -640,12 +649,19 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#\ &quot;Karung&quot;"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -737,7 +753,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -812,13 +828,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -843,91 +868,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -939,7 +910,67 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1443,19 +1474,19 @@
   <sheetData>
     <row r="1" spans="2:12" ht="6" customHeight="1"/>
     <row r="2" spans="2:12" ht="42.75" customHeight="1">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="2:12" s="1" customFormat="1" ht="45">
       <c r="B3" s="2" t="s">
@@ -1511,7 +1542,7 @@
       <c r="G4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="26" t="s">
         <v>36</v>
       </c>
       <c r="I4" s="8" t="s">
@@ -1523,7 +1554,7 @@
       <c r="K4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="24" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1546,7 +1577,7 @@
       <c r="G5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="22"/>
+      <c r="H5" s="27"/>
       <c r="I5" s="8" t="s">
         <v>24</v>
       </c>
@@ -1556,7 +1587,7 @@
       <c r="K5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="20"/>
+      <c r="L5" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1588,14 +1619,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="29.1" customHeight="1">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="2:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="B3" s="2" t="s">
@@ -1628,14 +1659,14 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="2:7" ht="29.1" customHeight="1">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="6" spans="2:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="B6" s="2" t="s">
@@ -1668,14 +1699,14 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="2:7" ht="29.1" customHeight="1">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="2:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="B9" s="2" t="s">
@@ -1708,14 +1739,14 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="2:7" ht="29.1" customHeight="1">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="2:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="B12" s="2" t="s">
@@ -1748,14 +1779,14 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="2:7" ht="29.1" customHeight="1">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="2:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="B15" s="2" t="s">
@@ -1788,14 +1819,14 @@
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="2:7" ht="29.1" customHeight="1">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
     </row>
     <row r="18" spans="2:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="B18" s="2" t="s">
@@ -1828,14 +1859,14 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="2:7" ht="29.1" customHeight="1">
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
     </row>
     <row r="21" spans="2:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="B21" s="2" t="s">
@@ -1868,14 +1899,14 @@
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="2:7" ht="29.1" customHeight="1">
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
     </row>
     <row r="24" spans="2:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="B24" s="2" t="s">
@@ -1908,14 +1939,14 @@
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="2:7" ht="29.1" customHeight="1">
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
     </row>
     <row r="27" spans="2:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="B27" s="2" t="s">
@@ -1948,14 +1979,14 @@
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="2:7" ht="29.1" customHeight="1">
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
     </row>
     <row r="30" spans="2:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="B30" s="2" t="s">
@@ -1988,14 +2019,14 @@
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="2:7" ht="29.1" customHeight="1">
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
     </row>
     <row r="33" spans="2:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="B33" s="2" t="s">
@@ -2028,14 +2059,14 @@
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="2:7" ht="29.1" customHeight="1">
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
     </row>
     <row r="36" spans="2:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="B36" s="2" t="s">
@@ -2068,14 +2099,14 @@
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="2:7" ht="29.1" customHeight="1">
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
     </row>
     <row r="39" spans="2:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="B39" s="2" t="s">
@@ -2108,14 +2139,14 @@
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="2:7" ht="29.1" customHeight="1">
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
     </row>
     <row r="42" spans="2:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="B42" s="2" t="s">
@@ -2148,14 +2179,14 @@
       <c r="G43" s="3"/>
     </row>
     <row r="44" spans="2:7" ht="29.1" customHeight="1">
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
     </row>
     <row r="45" spans="2:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="B45" s="2" t="s">
@@ -2188,14 +2219,14 @@
       <c r="G46" s="3"/>
     </row>
     <row r="47" spans="2:7" ht="29.1" customHeight="1">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
     </row>
     <row r="48" spans="2:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="B48" s="2" t="s">
@@ -2228,14 +2259,14 @@
       <c r="G49" s="3"/>
     </row>
     <row r="50" spans="2:7" ht="29.1" customHeight="1">
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
     </row>
     <row r="51" spans="2:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="B51" s="2" t="s">
@@ -2268,14 +2299,14 @@
       <c r="G52" s="3"/>
     </row>
     <row r="53" spans="2:7" ht="29.1" customHeight="1">
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
     </row>
     <row r="54" spans="2:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="B54" s="2" t="s">
@@ -2308,14 +2339,14 @@
       <c r="G55" s="3"/>
     </row>
     <row r="56" spans="2:7" ht="29.1" customHeight="1">
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
     </row>
     <row r="57" spans="2:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="B57" s="2" t="s">
@@ -2348,14 +2379,14 @@
       <c r="G58" s="3"/>
     </row>
     <row r="59" spans="2:7" ht="29.1" customHeight="1">
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
     </row>
     <row r="60" spans="2:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="B60" s="2" t="s">
@@ -2388,14 +2419,14 @@
       <c r="G61" s="3"/>
     </row>
     <row r="62" spans="2:7" ht="29.1" customHeight="1">
-      <c r="B62" s="25" t="s">
+      <c r="B62" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
     </row>
     <row r="63" spans="2:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="B63" s="2" t="s">
@@ -2428,14 +2459,14 @@
       <c r="G64" s="3"/>
     </row>
     <row r="65" spans="2:7" ht="29.1" customHeight="1">
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
     </row>
     <row r="66" spans="2:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="B66" s="2" t="s">
@@ -2468,14 +2499,14 @@
       <c r="G67" s="3"/>
     </row>
     <row r="68" spans="2:7" ht="29.1" customHeight="1">
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
     </row>
     <row r="69" spans="2:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="B69" s="2" t="s">
@@ -2508,14 +2539,14 @@
       <c r="G70" s="3"/>
     </row>
     <row r="71" spans="2:7" ht="29.1" customHeight="1">
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
     </row>
     <row r="72" spans="2:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="B72" s="2" t="s">
@@ -2548,14 +2579,14 @@
       <c r="G73" s="3"/>
     </row>
     <row r="74" spans="2:7" ht="29.1" customHeight="1">
-      <c r="B74" s="25" t="s">
+      <c r="B74" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
     </row>
     <row r="75" spans="2:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="B75" s="2" t="s">
@@ -2588,14 +2619,14 @@
       <c r="G76" s="3"/>
     </row>
     <row r="77" spans="2:7" ht="29.1" customHeight="1">
-      <c r="B77" s="25" t="s">
+      <c r="B77" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
     </row>
     <row r="78" spans="2:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="B78" s="2" t="s">
@@ -2628,14 +2659,14 @@
       <c r="G79" s="3"/>
     </row>
     <row r="80" spans="2:7" ht="29.1" customHeight="1">
-      <c r="B80" s="25" t="s">
+      <c r="B80" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="25"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
     </row>
     <row r="81" spans="2:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="B81" s="2" t="s">
@@ -2668,14 +2699,14 @@
       <c r="G82" s="3"/>
     </row>
     <row r="83" spans="2:7" ht="29.1" customHeight="1">
-      <c r="B83" s="25" t="s">
+      <c r="B83" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="25"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
     </row>
     <row r="84" spans="2:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="B84" s="2" t="s">
@@ -2708,14 +2739,14 @@
       <c r="G85" s="3"/>
     </row>
     <row r="86" spans="2:7" ht="29.1" customHeight="1">
-      <c r="B86" s="25" t="s">
+      <c r="B86" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="25"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
     </row>
     <row r="87" spans="2:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="B87" s="2" t="s">
@@ -2748,14 +2779,14 @@
       <c r="G88" s="3"/>
     </row>
     <row r="89" spans="2:7" ht="29.1" customHeight="1">
-      <c r="B89" s="25" t="s">
+      <c r="B89" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="25"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
     </row>
     <row r="90" spans="2:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="B90" s="2" t="s">
@@ -2788,14 +2819,14 @@
       <c r="G91" s="3"/>
     </row>
     <row r="92" spans="2:7" ht="29.1" customHeight="1">
-      <c r="B92" s="25" t="s">
+      <c r="B92" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="25"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
     </row>
     <row r="93" spans="2:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="B93" s="2" t="s">
@@ -2828,14 +2859,14 @@
       <c r="G94" s="3"/>
     </row>
     <row r="95" spans="2:7" ht="29.1" customHeight="1">
-      <c r="B95" s="25" t="s">
+      <c r="B95" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C95" s="25"/>
-      <c r="D95" s="25"/>
-      <c r="E95" s="25"/>
-      <c r="F95" s="25"/>
-      <c r="G95" s="25"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="29"/>
     </row>
     <row r="96" spans="2:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="B96" s="2" t="s">
@@ -2872,92 +2903,62 @@
       <c r="B99" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C99" s="23" t="s">
+      <c r="C99" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="31"/>
+      <c r="G99" s="31"/>
     </row>
     <row r="100" spans="2:7" ht="45.75" customHeight="1">
-      <c r="C100" s="23" t="s">
+      <c r="C100" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D100" s="24"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
+      <c r="D100" s="31"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="31"/>
+      <c r="G100" s="31"/>
     </row>
     <row r="101" spans="2:7" ht="54.75" customHeight="1">
-      <c r="C101" s="23" t="s">
+      <c r="C101" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
+      <c r="D101" s="31"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="31"/>
+      <c r="G101" s="31"/>
     </row>
     <row r="102" spans="2:7" ht="62.25" customHeight="1">
-      <c r="C102" s="23" t="s">
+      <c r="C102" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D102" s="24"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="24"/>
+      <c r="D102" s="31"/>
+      <c r="E102" s="31"/>
+      <c r="F102" s="31"/>
+      <c r="G102" s="31"/>
     </row>
     <row r="103" spans="2:7" ht="46.5" customHeight="1">
-      <c r="C103" s="23" t="s">
+      <c r="C103" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D103" s="24"/>
-      <c r="E103" s="24"/>
-      <c r="F103" s="24"/>
-      <c r="G103" s="24"/>
+      <c r="D103" s="31"/>
+      <c r="E103" s="31"/>
+      <c r="F103" s="31"/>
+      <c r="G103" s="31"/>
     </row>
     <row r="104" spans="2:7" ht="27" customHeight="1">
-      <c r="C104" s="23" t="s">
+      <c r="C104" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D104" s="24"/>
-      <c r="E104" s="24"/>
-      <c r="F104" s="24"/>
-      <c r="G104" s="24"/>
+      <c r="D104" s="31"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="31"/>
+      <c r="G104" s="31"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:G105"/>
   <mergeCells count="38">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="B89:G89"/>
     <mergeCell ref="C102:G102"/>
     <mergeCell ref="C103:G103"/>
     <mergeCell ref="C104:G104"/>
@@ -2966,6 +2967,36 @@
     <mergeCell ref="C100:G100"/>
     <mergeCell ref="C101:G101"/>
     <mergeCell ref="C99:G99"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B14:G14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2991,15 +3022,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -3036,15 +3067,15 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -3081,15 +3112,15 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="A8" s="2" t="s">
@@ -3126,15 +3157,15 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -3171,15 +3202,15 @@
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="A14" s="2" t="s">
@@ -3216,15 +3247,15 @@
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="A17" s="2" t="s">
@@ -3261,15 +3292,15 @@
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
     </row>
     <row r="20" spans="1:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="A20" s="2" t="s">
@@ -3306,15 +3337,15 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
     </row>
     <row r="23" spans="1:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="A23" s="2" t="s">
@@ -3351,15 +3382,15 @@
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="A26" s="2" t="s">
@@ -3396,15 +3427,15 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="A29" s="2" t="s">
@@ -3441,15 +3472,15 @@
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
     </row>
     <row r="32" spans="1:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="A32" s="2" t="s">
@@ -3486,15 +3517,15 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
     </row>
     <row r="35" spans="1:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -3531,15 +3562,15 @@
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
     </row>
     <row r="38" spans="1:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="A38" s="2" t="s">
@@ -3576,15 +3607,15 @@
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
     </row>
     <row r="41" spans="1:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="A41" s="2" t="s">
@@ -3621,15 +3652,15 @@
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
     </row>
     <row r="44" spans="1:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="A44" s="2" t="s">
@@ -3666,15 +3697,15 @@
       <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
     </row>
     <row r="47" spans="1:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="A47" s="2" t="s">
@@ -3711,15 +3742,15 @@
       <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
     </row>
     <row r="50" spans="1:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="A50" s="2" t="s">
@@ -3756,15 +3787,15 @@
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
     </row>
     <row r="53" spans="1:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="A53" s="2" t="s">
@@ -3801,15 +3832,15 @@
       <c r="G54" s="3"/>
     </row>
     <row r="55" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
     </row>
     <row r="56" spans="1:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="A56" s="2" t="s">
@@ -3846,15 +3877,15 @@
       <c r="G57" s="3"/>
     </row>
     <row r="58" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
     </row>
     <row r="59" spans="1:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="A59" s="2" t="s">
@@ -3891,15 +3922,15 @@
       <c r="G60" s="3"/>
     </row>
     <row r="61" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
     </row>
     <row r="62" spans="1:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="A62" s="2" t="s">
@@ -3936,15 +3967,15 @@
       <c r="G63" s="3"/>
     </row>
     <row r="64" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
     </row>
     <row r="65" spans="1:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="A65" s="2" t="s">
@@ -3981,15 +4012,15 @@
       <c r="G66" s="3"/>
     </row>
     <row r="67" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
     </row>
     <row r="68" spans="1:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="A68" s="2" t="s">
@@ -4026,15 +4057,15 @@
       <c r="G69" s="3"/>
     </row>
     <row r="70" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
     </row>
     <row r="71" spans="1:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="A71" s="2" t="s">
@@ -4071,15 +4102,15 @@
       <c r="G72" s="3"/>
     </row>
     <row r="73" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
     </row>
     <row r="74" spans="1:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="A74" s="2" t="s">
@@ -4116,15 +4147,15 @@
       <c r="G75" s="3"/>
     </row>
     <row r="76" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A76" s="25" t="s">
+      <c r="A76" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
     </row>
     <row r="77" spans="1:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="A77" s="2" t="s">
@@ -4161,15 +4192,15 @@
       <c r="G78" s="3"/>
     </row>
     <row r="79" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
     </row>
     <row r="80" spans="1:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="A80" s="2" t="s">
@@ -4206,15 +4237,15 @@
       <c r="G81" s="3"/>
     </row>
     <row r="82" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A82" s="25" t="s">
+      <c r="A82" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
     </row>
     <row r="83" spans="1:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="A83" s="2" t="s">
@@ -4251,15 +4282,15 @@
       <c r="G84" s="3"/>
     </row>
     <row r="85" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B85" s="25"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
     </row>
     <row r="86" spans="1:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="A86" s="2" t="s">
@@ -4296,15 +4327,15 @@
       <c r="G87" s="3"/>
     </row>
     <row r="88" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A88" s="25" t="s">
+      <c r="A88" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
     </row>
     <row r="89" spans="1:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="A89" s="2" t="s">
@@ -4341,15 +4372,15 @@
       <c r="G90" s="3"/>
     </row>
     <row r="91" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A91" s="25" t="s">
+      <c r="A91" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B91" s="25"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="25"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="25"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
     </row>
     <row r="92" spans="1:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="A92" s="2" t="s">
@@ -4386,15 +4417,15 @@
       <c r="G93" s="3"/>
     </row>
     <row r="94" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A94" s="25" t="s">
+      <c r="A94" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B94" s="25"/>
-      <c r="C94" s="25"/>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
     </row>
     <row r="95" spans="1:7" s="1" customFormat="1" ht="29.1" customHeight="1">
       <c r="A95" s="2" t="s">
@@ -4435,98 +4466,68 @@
       <c r="A98" t="s">
         <v>1</v>
       </c>
-      <c r="B98" s="23" t="s">
+      <c r="B98" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="27"/>
-      <c r="G98" s="27"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="32"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="32"/>
     </row>
     <row r="99" spans="1:7" ht="27" customHeight="1">
-      <c r="B99" s="23" t="s">
+      <c r="B99" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
-      <c r="G99" s="27"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="32"/>
     </row>
     <row r="100" spans="1:7" ht="31.5" customHeight="1">
-      <c r="B100" s="23" t="s">
+      <c r="B100" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="27"/>
-      <c r="G100" s="27"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="32"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="32"/>
     </row>
     <row r="101" spans="1:7" ht="61.5" customHeight="1">
-      <c r="B101" s="23" t="s">
+      <c r="B101" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="27"/>
-      <c r="G101" s="27"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="32"/>
+      <c r="G101" s="32"/>
     </row>
     <row r="102" spans="1:7" ht="49.5" customHeight="1">
-      <c r="B102" s="23" t="s">
+      <c r="B102" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C102" s="27"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27"/>
-      <c r="G102" s="27"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="32"/>
     </row>
     <row r="103" spans="1:7" ht="40.5" customHeight="1">
-      <c r="B103" s="23" t="s">
+      <c r="B103" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="27"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="32"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G104"/>
   <mergeCells count="38">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="A61:G61"/>
-    <mergeCell ref="A64:G64"/>
-    <mergeCell ref="A67:G67"/>
-    <mergeCell ref="A70:G70"/>
-    <mergeCell ref="A73:G73"/>
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="A79:G79"/>
-    <mergeCell ref="A82:G82"/>
-    <mergeCell ref="A85:G85"/>
-    <mergeCell ref="A88:G88"/>
     <mergeCell ref="B101:G101"/>
     <mergeCell ref="B102:G102"/>
     <mergeCell ref="B103:G103"/>
@@ -4535,6 +4536,36 @@
     <mergeCell ref="B98:G98"/>
     <mergeCell ref="B99:G99"/>
     <mergeCell ref="B100:G100"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A79:G79"/>
+    <mergeCell ref="A82:G82"/>
+    <mergeCell ref="A85:G85"/>
+    <mergeCell ref="A88:G88"/>
+    <mergeCell ref="A61:G61"/>
+    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="A67:G67"/>
+    <mergeCell ref="A70:G70"/>
+    <mergeCell ref="A73:G73"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A13:G13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4562,17 +4593,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="36" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -5131,11 +5162,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomLeft" activeCell="L19" sqref="L16:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -5149,22 +5180,27 @@
     <col min="8" max="8" width="17" style="7" customWidth="1"/>
     <col min="9" max="9" width="8.85546875" style="7" customWidth="1"/>
     <col min="10" max="10" width="13.140625" style="7" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="7"/>
+    <col min="11" max="11" width="14.28515625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="42" customHeight="1">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:12" ht="42" customHeight="1">
+      <c r="A1" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+    </row>
+    <row r="2" spans="1:12" ht="30" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5186,15 +5222,21 @@
       <c r="G2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="35" t="s">
         <v>100</v>
       </c>
       <c r="J2" s="36"/>
-    </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1">
+      <c r="K2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30" customHeight="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -5214,14 +5256,16 @@
       <c r="G3" s="2">
         <v>31.8</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="18">
         <f>+D3-E3*G3</f>
         <v>690.7</v>
       </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="37"/>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1">
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" ht="30" customHeight="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -5243,14 +5287,16 @@
         <f>37</f>
         <v>37</v>
       </c>
-      <c r="H4" s="34">
-        <f t="shared" ref="H4:H35" si="0">+D4-E4*G4</f>
+      <c r="H4" s="18">
+        <f t="shared" ref="H4:H30" si="0">+D4-E4*G4</f>
         <v>267</v>
       </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="37"/>
-    </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1">
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" ht="30" customHeight="1">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -5270,14 +5316,16 @@
       <c r="G5" s="2">
         <v>37</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="37"/>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1">
+      <c r="I5" s="18"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" customHeight="1">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -5298,18 +5346,20 @@
       <c r="G6" s="2">
         <v>37</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="18">
         <f t="shared" si="0"/>
         <v>194.5</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="37"/>
-    </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1">
+      <c r="I6" s="18"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" ht="30" customHeight="1">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="20">
         <v>0.08</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -5325,22 +5375,24 @@
       <c r="G7" s="2">
         <v>22.88</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="18">
         <f>+D7-(E7*G7)-I7</f>
         <v>164.52000000000004</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="18">
         <v>16</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="19" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" ht="30" customHeight="1">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="20">
         <v>0.08</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -5356,22 +5408,24 @@
       <c r="G8" s="2">
         <v>20.04</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="18">
         <f>+D8-(E8*G8)-I8</f>
         <v>193.66000000000003</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="18">
         <v>16</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="J8" s="19" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1">
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" ht="30" customHeight="1">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="20">
         <v>0.08</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -5387,22 +5441,24 @@
       <c r="G9" s="2">
         <v>14.92</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="18">
         <f>+D9-(E9*G9)-I9</f>
         <v>143.56</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="18">
         <v>15.5</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="19" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" ht="30" customHeight="1">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="20">
         <v>0.1</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -5418,22 +5474,24 @@
       <c r="G10" s="2">
         <v>20.04</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="18">
         <f>+D10-(E10*G10)-I10</f>
         <v>11.380000000000003</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="18">
         <v>16</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="19" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1">
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" ht="30" customHeight="1">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="20">
         <v>0.254</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -5449,14 +5507,16 @@
       <c r="G11" s="2">
         <v>22.88</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="18">
         <f t="shared" si="0"/>
         <v>101.48</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="37"/>
-    </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1">
+      <c r="I11" s="18"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" ht="30" customHeight="1">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -5476,14 +5536,16 @@
       <c r="G12" s="2">
         <v>20.04</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="18">
         <f t="shared" si="0"/>
         <v>5.4600000000000009</v>
       </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="37"/>
-    </row>
-    <row r="13" spans="1:10" ht="30" customHeight="1">
+      <c r="I12" s="18"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" ht="30" customHeight="1">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -5494,23 +5556,29 @@
         <v>83</v>
       </c>
       <c r="D13" s="2">
-        <v>215.64</v>
+        <f>215.64 + 68.64</f>
+        <v>284.27999999999997</v>
       </c>
       <c r="E13" s="2">
-        <v>66</v>
+        <f>66+18</f>
+        <v>84</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="18">
         <f t="shared" si="0"/>
-        <v>206.39999999999998</v>
-      </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="37"/>
-    </row>
-    <row r="14" spans="1:10" ht="30" customHeight="1">
+        <v>272.52</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" ht="30" customHeight="1">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -5521,23 +5589,29 @@
         <v>83</v>
       </c>
       <c r="D14" s="2">
-        <v>15.44</v>
+        <f>15.44+185.86</f>
+        <v>201.3</v>
       </c>
       <c r="E14" s="2">
-        <v>2</v>
+        <f>2+23</f>
+        <v>25</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
         <v>0.5</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="18">
         <f t="shared" si="0"/>
-        <v>14.44</v>
-      </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="37"/>
-    </row>
-    <row r="15" spans="1:10" ht="30" customHeight="1">
+        <v>188.8</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="30" customHeight="1">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -5557,14 +5631,18 @@
       <c r="G15" s="2">
         <v>0.5</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="18">
         <f t="shared" si="0"/>
         <v>201.92</v>
       </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="37"/>
-    </row>
-    <row r="16" spans="1:10" ht="30" customHeight="1">
+      <c r="I15" s="18"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" ht="30" customHeight="1">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -5584,14 +5662,18 @@
       <c r="G16" s="2">
         <v>0.5</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="18">
         <f t="shared" si="0"/>
         <v>316.52</v>
       </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="37"/>
-    </row>
-    <row r="17" spans="1:10" ht="30" customHeight="1">
+      <c r="I16" s="18"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" ht="30" customHeight="1">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -5611,14 +5693,18 @@
       <c r="G17" s="2">
         <v>0.5</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="18">
         <f t="shared" si="0"/>
         <v>1.2799999999999998</v>
       </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="37"/>
-    </row>
-    <row r="18" spans="1:10" ht="30" customHeight="1">
+      <c r="I17" s="18"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -5638,14 +5724,18 @@
       <c r="G18" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H18" s="34">
+      <c r="H18" s="18">
         <f t="shared" si="0"/>
         <v>45.62</v>
       </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="37"/>
-    </row>
-    <row r="19" spans="1:10" ht="30" customHeight="1">
+      <c r="I18" s="18"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" ht="30" customHeight="1">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -5665,14 +5755,18 @@
       <c r="G19" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19" s="18">
         <f t="shared" si="0"/>
         <v>6.26</v>
       </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="37"/>
-    </row>
-    <row r="20" spans="1:10" ht="30" customHeight="1">
+      <c r="I19" s="18"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" ht="30" customHeight="1">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -5692,18 +5786,20 @@
       <c r="G20" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20" s="18">
         <f>+D20-(E20*G20)-I20</f>
         <v>47.620000000000005</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20" s="18">
         <v>15.5</v>
       </c>
-      <c r="J20" s="37" t="s">
+      <c r="J20" s="19" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="30" customHeight="1">
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" ht="30" customHeight="1">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -5723,18 +5819,20 @@
       <c r="G21" s="2">
         <v>11.04</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="18">
         <f>D21-G21-I21</f>
         <v>38.46</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="18">
         <v>15.5</v>
       </c>
-      <c r="J21" s="37" t="s">
+      <c r="J21" s="19" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="30" customHeight="1">
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" ht="30" customHeight="1">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -5754,18 +5852,20 @@
       <c r="G22" s="2">
         <v>5.0199999999999996</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22" s="18">
         <f>D22-G22-I22</f>
         <v>73.98</v>
       </c>
-      <c r="I22" s="34">
+      <c r="I22" s="18">
         <v>15.5</v>
       </c>
-      <c r="J22" s="37" t="s">
+      <c r="J22" s="19" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="30" customHeight="1">
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" ht="30" customHeight="1">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -5786,14 +5886,16 @@
         <f>(5*0.5)+(4*0.14)</f>
         <v>3.06</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23" s="18">
         <f>D23-G23-I23</f>
         <v>13.44</v>
       </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="37"/>
-    </row>
-    <row r="24" spans="1:10" ht="30" customHeight="1">
+      <c r="I23" s="18"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" ht="30" customHeight="1">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -5814,14 +5916,16 @@
         <f>(4*0.5)+(2*0.14)</f>
         <v>2.2800000000000002</v>
       </c>
-      <c r="H24" s="34">
+      <c r="H24" s="18">
         <f>D24-G24-I24</f>
         <v>32.22</v>
       </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="37"/>
-    </row>
-    <row r="25" spans="1:10" ht="30" customHeight="1">
+      <c r="I24" s="18"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" ht="30" customHeight="1">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -5841,14 +5945,16 @@
       <c r="G25" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H25" s="34">
+      <c r="H25" s="18">
         <f t="shared" si="0"/>
         <v>6.4399999999999995</v>
       </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="37"/>
-    </row>
-    <row r="26" spans="1:10" ht="30" customHeight="1">
+      <c r="I25" s="18"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" ht="30" customHeight="1">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -5869,14 +5975,16 @@
         <f>(5*0.5)+(5*0.14)</f>
         <v>3.2</v>
       </c>
-      <c r="H26" s="34">
+      <c r="H26" s="18">
         <f>D26-G26-I26</f>
         <v>20.8</v>
       </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="37"/>
-    </row>
-    <row r="27" spans="1:10" ht="30" customHeight="1">
+      <c r="I26" s="18"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" ht="30" customHeight="1">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -5896,14 +6004,16 @@
       <c r="G27" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H27" s="34">
+      <c r="H27" s="18">
         <f t="shared" si="0"/>
         <v>2.86</v>
       </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="37"/>
-    </row>
-    <row r="28" spans="1:10" ht="30" customHeight="1">
+      <c r="I27" s="18"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" ht="30" customHeight="1">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -5923,14 +6033,16 @@
       <c r="G28" s="2">
         <v>0.5</v>
       </c>
-      <c r="H28" s="34">
+      <c r="H28" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="37"/>
-    </row>
-    <row r="29" spans="1:10" ht="30" customHeight="1">
+      <c r="I28" s="18"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" ht="30" customHeight="1">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -5950,134 +6062,53 @@
       <c r="G29" s="2">
         <v>0.5</v>
       </c>
-      <c r="H29" s="34">
+      <c r="H29" s="18">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I29" s="34"/>
-      <c r="J29" s="37"/>
-    </row>
-    <row r="30" spans="1:10" ht="30" customHeight="1">
+      <c r="I29" s="18"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" ht="30" customHeight="1">
       <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="37" t="s">
         <v>99</v>
       </c>
       <c r="C30" s="36"/>
       <c r="D30" s="2">
         <v>142</v>
       </c>
-      <c r="E30" s="39">
+      <c r="E30" s="21">
         <v>8</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2">
         <v>0.125</v>
       </c>
-      <c r="H30" s="34">
+      <c r="H30" s="18">
         <f t="shared" si="0"/>
         <v>141</v>
       </c>
-      <c r="I30" s="34"/>
-      <c r="J30" s="37"/>
-    </row>
-    <row r="31" spans="1:10" ht="30" customHeight="1">
-      <c r="A31" s="2">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="34"/>
-      <c r="J31" s="37"/>
-    </row>
-    <row r="32" spans="1:10" ht="30" customHeight="1">
-      <c r="A32" s="2">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="34"/>
-      <c r="J32" s="37"/>
-    </row>
-    <row r="33" spans="1:10" ht="30" customHeight="1">
-      <c r="A33" s="2">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="34"/>
-      <c r="J33" s="37"/>
-    </row>
-    <row r="34" spans="1:10" ht="30" customHeight="1">
-      <c r="A34" s="2">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="34"/>
-      <c r="J34" s="37"/>
-    </row>
-    <row r="35" spans="1:10" ht="30" customHeight="1">
-      <c r="A35" s="2">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="34"/>
-      <c r="J35" s="37"/>
-    </row>
-    <row r="36" spans="1:10" ht="30" customHeight="1"/>
-    <row r="37" spans="1:10" ht="30" customHeight="1">
-      <c r="E37" s="7" t="s">
+      <c r="I30" s="18"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" ht="30" customHeight="1"/>
+    <row r="32" spans="1:12" ht="30" customHeight="1">
+      <c r="E32" s="7" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:H1"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6102,14 +6133,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1"/>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="68.25" customHeight="1">
@@ -6317,16 +6348,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" ht="60" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -6584,12 +6615,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A3" s="9" t="s">
@@ -6669,12 +6700,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36.950000000000003" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="36.950000000000003" customHeight="1">
       <c r="A2" s="2" t="s">
